--- a/results/131019-V40-1311-2013_Beach_Stylers_-_Womens-Turboshred.xlsx
+++ b/results/131019-V40-1311-2013_Beach_Stylers_-_Womens-Turboshred.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF7164C-A1C7-4E4D-A336-55DC22E95CF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A38CCE2-9A58-4E1A-B447-8AB1FE3A193B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
     <t>Event:</t>
   </si>
   <si>
-    <t>19.-20.10.2013</t>
+    <t>19.10.2013-20.10.2013</t>
   </si>
 </sst>
 </file>
@@ -1652,26 +1652,106 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1696,10 +1776,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1712,82 +1788,6 @@
     <xf numFmtId="9" fontId="2" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2124,13 +2124,13 @@
       <c r="F2" s="88"/>
       <c r="G2" s="88"/>
       <c r="H2" s="88"/>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
       <c r="N2" s="1"/>
       <c r="T2" s="79"/>
     </row>
@@ -2144,13 +2144,13 @@
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
       <c r="H3" s="82"/>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="119"/>
       <c r="N3" s="1"/>
       <c r="T3" s="79" t="s">
         <v>40</v>
@@ -2169,13 +2169,13 @@
       <c r="F4" s="84"/>
       <c r="G4" s="84"/>
       <c r="H4" s="84"/>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="114"/>
       <c r="N4" s="1"/>
       <c r="T4" s="79">
         <v>0</v>
@@ -2194,13 +2194,13 @@
       <c r="F5" s="82"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="101"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
       <c r="N5" s="1"/>
       <c r="T5" s="79"/>
     </row>
@@ -2214,13 +2214,13 @@
       <c r="F6" s="84"/>
       <c r="G6" s="84"/>
       <c r="H6" s="84"/>
-      <c r="I6" s="102">
+      <c r="I6" s="121">
         <v>4</v>
       </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="104"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="123"/>
       <c r="N6" s="1"/>
       <c r="T6" s="79" t="s">
         <v>34</v>
@@ -2242,13 +2242,13 @@
       <c r="F7" s="82"/>
       <c r="G7" s="82"/>
       <c r="H7" s="82"/>
-      <c r="I7" s="105">
-        <v>1</v>
-      </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="101"/>
+      <c r="I7" s="124">
+        <v>1</v>
+      </c>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="1"/>
       <c r="T7" s="79" t="s">
         <v>32</v>
@@ -2267,15 +2267,15 @@
       <c r="F8" s="84"/>
       <c r="G8" s="84"/>
       <c r="H8" s="84"/>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91" t="s">
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="92"/>
+      <c r="M8" s="114"/>
       <c r="N8" s="1"/>
       <c r="T8" s="79" t="s">
         <v>28</v>
@@ -2291,13 +2291,13 @@
       <c r="F9" s="82"/>
       <c r="G9" s="82"/>
       <c r="H9" s="82"/>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="101"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
       <c r="N9" s="1"/>
       <c r="T9" s="79" t="s">
         <v>26</v>
@@ -2313,11 +2313,11 @@
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="84"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="107"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
       <c r="N10" s="1"/>
       <c r="T10" s="79"/>
     </row>
@@ -2331,13 +2331,13 @@
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
       <c r="H11" s="82"/>
-      <c r="I11" s="93">
+      <c r="I11" s="103">
         <v>1311</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="101"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="1"/>
       <c r="T11" s="79"/>
     </row>
@@ -2351,29 +2351,29 @@
       <c r="F12" s="80"/>
       <c r="G12" s="80"/>
       <c r="H12" s="80"/>
-      <c r="I12" s="108">
+      <c r="I12" s="106">
         <v>1511</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="108"/>
       <c r="N12" s="1"/>
       <c r="T12" s="79"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="115"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="113"/>
       <c r="N13" s="1"/>
       <c r="T13" s="79"/>
     </row>
@@ -2401,9 +2401,9 @@
       <c r="M15" s="73"/>
       <c r="N15" s="72"/>
       <c r="O15" s="71"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="95"/>
       <c r="T15" s="5">
         <v>4</v>
       </c>
@@ -2449,11 +2449,11 @@
       <c r="N16" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="122" t="s">
+      <c r="Q16" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="98"/>
       <c r="T16" s="5"/>
       <c r="U16" s="58" t="s">
         <v>12</v>
@@ -2496,7 +2496,7 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="116">
+      <c r="B18" s="90">
         <v>1</v>
       </c>
       <c r="C18" s="43">
@@ -2555,7 +2555,7 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="117"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="33">
         <v>1</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="118"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="20">
         <v>1</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="116">
+      <c r="B21" s="90">
         <v>2</v>
       </c>
       <c r="C21" s="43">
@@ -2724,7 +2724,7 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="117"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="33">
         <v>2</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="118"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="20">
         <v>2</v>
       </c>
@@ -2834,7 +2834,7 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="116">
+      <c r="B24" s="90">
         <v>3</v>
       </c>
       <c r="C24" s="43">
@@ -2893,7 +2893,7 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="117"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="33">
         <v>3</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="118"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="20">
         <v>3</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="116">
+      <c r="B27" s="90">
         <v>4</v>
       </c>
       <c r="C27" s="43">
@@ -3062,7 +3062,7 @@
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="117"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="33">
         <v>4</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="118"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="20">
         <v>4</v>
       </c>
@@ -3173,18 +3173,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:M13"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="I9:K9"/>
@@ -3195,6 +3183,18 @@
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
   </mergeCells>
   <conditionalFormatting sqref="Q18:S29">
     <cfRule type="expression" dxfId="0" priority="1">
